--- a/Jogos_do_Dia/2023-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1093,10 +1093,10 @@
         <v>2.95</v>
       </c>
       <c r="M6" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2062,52 +2062,52 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
         <v>1.07</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
         <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>1.01</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="N21" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N22" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3602,31 +3602,31 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.98</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
         <v>1.02</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
         <v>1.04</v>
@@ -4946,7 +4946,7 @@
         <v>1.76</v>
       </c>
       <c r="N41" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
         <v>1.09</v>
@@ -5053,10 +5053,10 @@
         <v>2.83</v>
       </c>
       <c r="M42" t="n">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="N42" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="G45" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="I45" t="n">
         <v>1.1</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
         <v>1.08</v>
@@ -5713,10 +5713,10 @@
         <v>2.8</v>
       </c>
       <c r="M48" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="N48" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="I49" t="n">
         <v>1.02</v>
@@ -5823,10 +5823,10 @@
         <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="N49" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O49" t="n">
         <v>1.24</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G50" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="H50" t="n">
-        <v>5.1</v>
+        <v>3.88</v>
       </c>
       <c r="I50" t="n">
         <v>1.11</v>
@@ -5927,16 +5927,16 @@
         <v>6.5</v>
       </c>
       <c r="K50" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="M50" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="N50" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="O50" t="n">
         <v>1.6</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G51" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" t="n">
         <v>1.02</v>
@@ -6043,10 +6043,10 @@
         <v>5.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N51" t="n">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
         <v>3.6</v>
       </c>
       <c r="H52" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I52" t="n">
         <v>1.07</v>
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="M52" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="N52" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="O52" t="n">
         <v>1.45</v>
@@ -6361,43 +6361,43 @@
         <v>3.78</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V54" t="n">
         <v>1.83</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>7.15</v>
       </c>
       <c r="K67" t="n">
         <v>1.53</v>
@@ -7815,19 +7815,19 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V67" t="n">
         <v>1.83</v>
@@ -7964,16 +7964,16 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH68" t="n">
         <v>0</v>
